--- a/src/lexedata/data/example-bantu.xlsx
+++ b/src/lexedata/data/example-bantu.xlsx
@@ -5156,14 +5156,14 @@
   <dimension ref="A1:CP201"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1048540" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1048534" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A1048540" activeCellId="0" sqref="A1048540"/>
+      <selection pane="bottomLeft" activeCell="A1048534" activeCellId="0" sqref="A1048534"/>
       <selection pane="bottomRight" activeCell="A202" activeCellId="0" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10"/>
